--- a/test_data/sample_serial_numbers.xlsx
+++ b/test_data/sample_serial_numbers.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,879 +456,574 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Save-On-Foods $200</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>Urban Fare $50</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Urban Fare $100</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>6275330202500879304</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>6275330202500879400</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>631680792720</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>633061889969</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>633061890100</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>7000000000000</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>7000000100000</t>
-        </is>
+      <c r="A2" t="n">
+        <v>6.275330202500879e+18</v>
+      </c>
+      <c r="B2" t="n">
+        <v>6.27533020250088e+18</v>
+      </c>
+      <c r="C2" t="n">
+        <v>631680792720</v>
+      </c>
+      <c r="D2" t="n">
+        <v>633061889969</v>
+      </c>
+      <c r="E2" t="n">
+        <v>7000000000000</v>
+      </c>
+      <c r="F2" t="n">
+        <v>7000000100000</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>6275330202500879305</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>6275330202500879401</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>631680792721</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>633061889970</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>633061890101</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>7000000000001</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>7000000100001</t>
-        </is>
+      <c r="A3" t="n">
+        <v>6.275330202500879e+18</v>
+      </c>
+      <c r="B3" t="n">
+        <v>6.27533020250088e+18</v>
+      </c>
+      <c r="C3" t="n">
+        <v>631680792721</v>
+      </c>
+      <c r="D3" t="n">
+        <v>633061889970</v>
+      </c>
+      <c r="E3" t="n">
+        <v>7000000000001</v>
+      </c>
+      <c r="F3" t="n">
+        <v>7000000100001</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>6275330202500879306</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>6275330202500879402</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>631680792722</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>633061889971</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>633061890102</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>7000000000002</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>7000000100002</t>
-        </is>
+      <c r="A4" t="n">
+        <v>6.275330202500879e+18</v>
+      </c>
+      <c r="B4" t="n">
+        <v>6.27533020250088e+18</v>
+      </c>
+      <c r="C4" t="n">
+        <v>631680792722</v>
+      </c>
+      <c r="D4" t="n">
+        <v>633061889971</v>
+      </c>
+      <c r="E4" t="n">
+        <v>7000000000002</v>
+      </c>
+      <c r="F4" t="n">
+        <v>7000000100002</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>6275330202500879307</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>6275330202500879403</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>631680792723</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>633061889972</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>633061890103</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>7000000000003</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>7000000100003</t>
-        </is>
+      <c r="A5" t="n">
+        <v>6.275330202500879e+18</v>
+      </c>
+      <c r="B5" t="n">
+        <v>6.27533020250088e+18</v>
+      </c>
+      <c r="C5" t="n">
+        <v>631680792723</v>
+      </c>
+      <c r="D5" t="n">
+        <v>633061889972</v>
+      </c>
+      <c r="E5" t="n">
+        <v>7000000000003</v>
+      </c>
+      <c r="F5" t="n">
+        <v>7000000100003</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>6275330202500879308</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>6275330202500879404</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>631680792724</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>633061889973</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>633061890104</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>7000000000004</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>7000000100004</t>
-        </is>
+      <c r="A6" t="n">
+        <v>6.275330202500879e+18</v>
+      </c>
+      <c r="B6" t="n">
+        <v>6.27533020250088e+18</v>
+      </c>
+      <c r="C6" t="n">
+        <v>631680792724</v>
+      </c>
+      <c r="D6" t="n">
+        <v>633061889973</v>
+      </c>
+      <c r="E6" t="n">
+        <v>7000000000004</v>
+      </c>
+      <c r="F6" t="n">
+        <v>7000000100004</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>6275330202500879309</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>6275330202500879405</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>631680792725</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>633061889974</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>7000000000005</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>7000000100005</t>
-        </is>
+      <c r="A7" t="n">
+        <v>6.275330202500879e+18</v>
+      </c>
+      <c r="B7" t="n">
+        <v>6.27533020250088e+18</v>
+      </c>
+      <c r="C7" t="n">
+        <v>631680792725</v>
+      </c>
+      <c r="D7" t="n">
+        <v>633061889974</v>
+      </c>
+      <c r="E7" t="n">
+        <v>7000000000005</v>
+      </c>
+      <c r="F7" t="n">
+        <v>7000000100005</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>6275330202500879310</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>6275330202500879406</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>631680792726</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>633061889975</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>7000000000006</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>7000000100006</t>
-        </is>
+      <c r="A8" t="n">
+        <v>6.275330202500879e+18</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6.27533020250088e+18</v>
+      </c>
+      <c r="C8" t="n">
+        <v>631680792726</v>
+      </c>
+      <c r="D8" t="n">
+        <v>633061889975</v>
+      </c>
+      <c r="E8" t="n">
+        <v>7000000000006</v>
+      </c>
+      <c r="F8" t="n">
+        <v>7000000100006</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>6275330202500879311</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>6275330202500879407</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>631680792727</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>633061889976</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>7000000000007</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>7000000100007</t>
-        </is>
+      <c r="A9" t="n">
+        <v>6.275330202500879e+18</v>
+      </c>
+      <c r="B9" t="n">
+        <v>6.27533020250088e+18</v>
+      </c>
+      <c r="C9" t="n">
+        <v>631680792727</v>
+      </c>
+      <c r="D9" t="n">
+        <v>633061889976</v>
+      </c>
+      <c r="E9" t="n">
+        <v>7000000000007</v>
+      </c>
+      <c r="F9" t="n">
+        <v>7000000100007</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>6275330202500879312</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>6275330202500879408</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>631680792728</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>633061889977</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>7000000000008</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>7000000100008</t>
-        </is>
+      <c r="A10" t="n">
+        <v>6.275330202500879e+18</v>
+      </c>
+      <c r="B10" t="n">
+        <v>6.27533020250088e+18</v>
+      </c>
+      <c r="C10" t="n">
+        <v>631680792728</v>
+      </c>
+      <c r="D10" t="n">
+        <v>633061889977</v>
+      </c>
+      <c r="E10" t="n">
+        <v>7000000000008</v>
+      </c>
+      <c r="F10" t="n">
+        <v>7000000100008</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>6275330202500879313</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>6275330202500879409</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>631680792729</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>633061889978</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>7000000000009</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>7000000100009</t>
-        </is>
+      <c r="A11" t="n">
+        <v>6.275330202500879e+18</v>
+      </c>
+      <c r="B11" t="n">
+        <v>6.27533020250088e+18</v>
+      </c>
+      <c r="C11" t="n">
+        <v>631680792729</v>
+      </c>
+      <c r="D11" t="n">
+        <v>633061889978</v>
+      </c>
+      <c r="E11" t="n">
+        <v>7000000000009</v>
+      </c>
+      <c r="F11" t="n">
+        <v>7000000100009</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>6275330202500879314</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>6275330202500879410</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>631680792730</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>633061889979</t>
-        </is>
+      <c r="A12" t="n">
+        <v>6.275330202500879e+18</v>
+      </c>
+      <c r="B12" t="n">
+        <v>6.27533020250088e+18</v>
+      </c>
+      <c r="C12" t="n">
+        <v>631680792730</v>
+      </c>
+      <c r="D12" t="n">
+        <v>633061889979</v>
       </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>6275330202500879315</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>6275330202500879411</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>631680792731</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>633061889980</t>
-        </is>
+      <c r="A13" t="n">
+        <v>6.275330202500879e+18</v>
+      </c>
+      <c r="B13" t="n">
+        <v>6.27533020250088e+18</v>
+      </c>
+      <c r="C13" t="n">
+        <v>631680792731</v>
+      </c>
+      <c r="D13" t="n">
+        <v>633061889980</v>
       </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>6275330202500879316</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>6275330202500879412</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>631680792732</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>633061889981</t>
-        </is>
+      <c r="A14" t="n">
+        <v>6.275330202500879e+18</v>
+      </c>
+      <c r="B14" t="n">
+        <v>6.27533020250088e+18</v>
+      </c>
+      <c r="C14" t="n">
+        <v>631680792732</v>
+      </c>
+      <c r="D14" t="n">
+        <v>633061889981</v>
       </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>6275330202500879317</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>6275330202500879413</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>631680792733</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>633061889982</t>
-        </is>
+      <c r="A15" t="n">
+        <v>6.275330202500879e+18</v>
+      </c>
+      <c r="B15" t="n">
+        <v>6.27533020250088e+18</v>
+      </c>
+      <c r="C15" t="n">
+        <v>631680792733</v>
+      </c>
+      <c r="D15" t="n">
+        <v>633061889982</v>
       </c>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>6275330202500879318</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>6275330202500879414</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>631680792734</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>633061889983</t>
-        </is>
+      <c r="A16" t="n">
+        <v>6.275330202500879e+18</v>
+      </c>
+      <c r="B16" t="n">
+        <v>6.27533020250088e+18</v>
+      </c>
+      <c r="C16" t="n">
+        <v>631680792734</v>
+      </c>
+      <c r="D16" t="n">
+        <v>633061889983</v>
       </c>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>6275330202500879319</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>6275330202500879415</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>631680792735</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>633061889984</t>
-        </is>
+      <c r="A17" t="n">
+        <v>6.275330202500879e+18</v>
+      </c>
+      <c r="B17" t="n">
+        <v>6.27533020250088e+18</v>
+      </c>
+      <c r="C17" t="n">
+        <v>631680792735</v>
+      </c>
+      <c r="D17" t="n">
+        <v>633061889984</v>
       </c>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>6275330202500879320</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>6275330202500879416</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>631680792736</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>633061889985</t>
-        </is>
+      <c r="A18" t="n">
+        <v>6.275330202500879e+18</v>
+      </c>
+      <c r="B18" t="n">
+        <v>6.27533020250088e+18</v>
+      </c>
+      <c r="C18" t="n">
+        <v>631680792736</v>
+      </c>
+      <c r="D18" t="n">
+        <v>633061889985</v>
       </c>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>6275330202500879321</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>6275330202500879417</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>631680792737</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>633061889986</t>
-        </is>
+      <c r="A19" t="n">
+        <v>6.275330202500879e+18</v>
+      </c>
+      <c r="B19" t="n">
+        <v>6.27533020250088e+18</v>
+      </c>
+      <c r="C19" t="n">
+        <v>631680792737</v>
+      </c>
+      <c r="D19" t="n">
+        <v>633061889986</v>
       </c>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>6275330202500879322</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>6275330202500879418</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>631680792738</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>633061889987</t>
-        </is>
+      <c r="A20" t="n">
+        <v>6.275330202500879e+18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>6.27533020250088e+18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>631680792738</v>
+      </c>
+      <c r="D20" t="n">
+        <v>633061889987</v>
       </c>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>6275330202500879323</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>6275330202500879419</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>631680792739</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>633061889988</t>
-        </is>
+      <c r="A21" t="n">
+        <v>6.275330202500879e+18</v>
+      </c>
+      <c r="B21" t="n">
+        <v>6.27533020250088e+18</v>
+      </c>
+      <c r="C21" t="n">
+        <v>631680792739</v>
+      </c>
+      <c r="D21" t="n">
+        <v>633061889988</v>
       </c>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr"/>
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>633061889989</t>
-        </is>
+      <c r="D22" t="n">
+        <v>633061889989</v>
       </c>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr"/>
       <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>633061889990</t>
-        </is>
+      <c r="D23" t="n">
+        <v>633061889990</v>
       </c>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr"/>
       <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>633061889991</t>
-        </is>
+      <c r="D24" t="n">
+        <v>633061889991</v>
       </c>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr"/>
       <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>633061889992</t>
-        </is>
+      <c r="D25" t="n">
+        <v>633061889992</v>
       </c>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr"/>
       <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>633061889993</t>
-        </is>
+      <c r="D26" t="n">
+        <v>633061889993</v>
       </c>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr"/>
       <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>633061889994</t>
-        </is>
+      <c r="D27" t="n">
+        <v>633061889994</v>
       </c>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr"/>
       <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>633061889995</t>
-        </is>
+      <c r="D28" t="n">
+        <v>633061889995</v>
       </c>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr"/>
       <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>633061889996</t>
-        </is>
+      <c r="D29" t="n">
+        <v>633061889996</v>
       </c>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr"/>
       <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>633061889997</t>
-        </is>
+      <c r="D30" t="n">
+        <v>633061889997</v>
       </c>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr"/>
       <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>633061889998</t>
-        </is>
+      <c r="D31" t="n">
+        <v>633061889998</v>
       </c>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr"/>
       <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>633061889999</t>
-        </is>
+      <c r="D32" t="n">
+        <v>633061889999</v>
       </c>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr"/>
       <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>633061890000</t>
-        </is>
+      <c r="D33" t="n">
+        <v>633061890000</v>
       </c>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr"/>
-      <c r="G33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr"/>
       <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>633061890001</t>
-        </is>
+      <c r="D34" t="n">
+        <v>633061890001</v>
       </c>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr"/>
       <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>633061890002</t>
-        </is>
+      <c r="D35" t="n">
+        <v>633061890002</v>
       </c>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr"/>
       <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr"/>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>633061890003</t>
-        </is>
+      <c r="D36" t="n">
+        <v>633061890003</v>
       </c>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr"/>
       <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr"/>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>633061890004</t>
-        </is>
+      <c r="D37" t="n">
+        <v>633061890004</v>
       </c>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr"/>
-      <c r="G37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr"/>
       <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr"/>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>633061890005</t>
-        </is>
+      <c r="D38" t="n">
+        <v>633061890005</v>
       </c>
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr"/>
-      <c r="G38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr"/>
       <c r="B39" t="inlineStr"/>
       <c r="C39" t="inlineStr"/>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>633061890006</t>
-        </is>
+      <c r="D39" t="n">
+        <v>633061890006</v>
       </c>
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr"/>
-      <c r="G39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr"/>
       <c r="B40" t="inlineStr"/>
       <c r="C40" t="inlineStr"/>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>633061890007</t>
-        </is>
+      <c r="D40" t="n">
+        <v>633061890007</v>
       </c>
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr"/>
-      <c r="G40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr"/>
       <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr"/>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>633061890008</t>
-        </is>
+      <c r="D41" t="n">
+        <v>633061890008</v>
       </c>
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr"/>
-      <c r="G41" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
